--- a/data/trans_orig/P1427-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1427-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>6048</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1985</v>
+        <v>1908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15466</v>
+        <v>13690</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01383366411273123</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004540513534821281</v>
+        <v>0.004363016446289818</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03537465361255528</v>
+        <v>0.03131273404720603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5610</v>
+        <v>5328</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003066246812702048</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01783893333072056</v>
+        <v>0.0169451997841949</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>7012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2823</v>
+        <v>2860</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16437</v>
+        <v>16146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00932918402459878</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003755691140138653</v>
+        <v>0.00380459047114043</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02186761093699318</v>
+        <v>0.02148092540680727</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>431163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421745</v>
+        <v>423521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>435226</v>
+        <v>435303</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9861663358872688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9646253463874448</v>
+        <v>0.968687265952794</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9954594864651787</v>
+        <v>0.9956369835537101</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -835,7 +835,7 @@
         <v>313490</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308844</v>
+        <v>309126</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -844,7 +844,7 @@
         <v>0.9969337531872979</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9821610666692784</v>
+        <v>0.9830548002158044</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -856,19 +856,19 @@
         <v>744653</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>735228</v>
+        <v>735519</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>748842</v>
+        <v>748805</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9906708159754012</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9781323890630059</v>
+        <v>0.9785190745931895</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9962443088598614</v>
+        <v>0.9961954095288595</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>6512</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2219</v>
+        <v>2180</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15914</v>
+        <v>15201</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01555012777389746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005298651462159859</v>
+        <v>0.005206041382925271</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03799876613994688</v>
+        <v>0.03629716081432716</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14462</v>
+        <v>12853</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01106536251904294</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04278656705734729</v>
+        <v>0.03802542664958129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -1002,19 +1002,19 @@
         <v>10253</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4273</v>
+        <v>4031</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20547</v>
+        <v>19715</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01354710941559205</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005646730274484378</v>
+        <v>0.005326929756486936</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02715018251894319</v>
+        <v>0.02605026038760709</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>412285</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>402883</v>
+        <v>403596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416578</v>
+        <v>416617</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9844498722261026</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9620012338600534</v>
+        <v>0.963702839185673</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9947013485378405</v>
+        <v>0.9947939586170749</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>303</v>
@@ -1052,7 +1052,7 @@
         <v>334271</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>323549</v>
+        <v>325158</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>338011</v>
@@ -1061,7 +1061,7 @@
         <v>0.9889346374809571</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9572134329426525</v>
+        <v>0.9619745733504187</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1073,19 +1073,19 @@
         <v>746555</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>736261</v>
+        <v>737093</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>752535</v>
+        <v>752777</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.986452890584408</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9728498174810568</v>
+        <v>0.973949739612393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9943532697255157</v>
+        <v>0.994673070243513</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>15195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8835</v>
+        <v>9248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24569</v>
+        <v>25390</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02414143152696133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01403657655110771</v>
+        <v>0.01469233141164131</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03903416860958221</v>
+        <v>0.04033915289912137</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>3093</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9269</v>
+        <v>8531</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0118887099263007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003822390346407688</v>
+        <v>0.003801882133592123</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03563228538052371</v>
+        <v>0.0327934999906804</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1219,19 +1219,19 @@
         <v>18288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10273</v>
+        <v>11067</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27799</v>
+        <v>28782</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02055836807968566</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01154908761081041</v>
+        <v>0.01244151702305624</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03125071263195425</v>
+        <v>0.03235574546615966</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>614220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>604846</v>
+        <v>604025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>620580</v>
+        <v>620167</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9758585684730386</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9609658313904176</v>
+        <v>0.9596608471008786</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9859634234488922</v>
+        <v>0.9853076685883586</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -1269,19 +1269,19 @@
         <v>257036</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>250860</v>
+        <v>251598</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>259135</v>
+        <v>259140</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9881112900736992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9643677146194762</v>
+        <v>0.9672065000093194</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9961776096535923</v>
+        <v>0.9961981178664079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>817</v>
@@ -1290,19 +1290,19 @@
         <v>871256</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>861745</v>
+        <v>860762</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>879271</v>
+        <v>878477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9794416319203143</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9687492873680458</v>
+        <v>0.9676442545338404</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9884509123891896</v>
+        <v>0.9875584829769437</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>32886</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21801</v>
+        <v>22635</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46288</v>
+        <v>47099</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02837409690732963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01880972942849105</v>
+        <v>0.01952925437175019</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03993734496307268</v>
+        <v>0.0406369501923198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1415,19 +1415,19 @@
         <v>12305</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6336</v>
+        <v>6382</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22027</v>
+        <v>22553</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01609142602549651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008284852579546699</v>
+        <v>0.008344979247453305</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02880379730382658</v>
+        <v>0.02949138924938767</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -1436,19 +1436,19 @@
         <v>45191</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31573</v>
+        <v>31713</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>60252</v>
+        <v>61593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02349148657601059</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01641230907291142</v>
+        <v>0.01648500423527248</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03132027948214595</v>
+        <v>0.03201741744013315</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1126123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1112721</v>
+        <v>1111910</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1137208</v>
+        <v>1136374</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9716259030926704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9600626550369274</v>
+        <v>0.9593630498076802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.981190270571509</v>
+        <v>0.9804707456282498</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>699</v>
@@ -1486,19 +1486,19 @@
         <v>752417</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>742695</v>
+        <v>742169</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>758386</v>
+        <v>758340</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9839085739745035</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9711962026961739</v>
+        <v>0.970508610750612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9917151474204533</v>
+        <v>0.9916550207525463</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1753</v>
@@ -1507,19 +1507,19 @@
         <v>1878540</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1863479</v>
+        <v>1862138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1892158</v>
+        <v>1892018</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9765085134239894</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.968679720517854</v>
+        <v>0.9679825825598668</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9835876909270886</v>
+        <v>0.9835149957647275</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>7340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3090</v>
+        <v>3172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14843</v>
+        <v>14291</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01437596423649222</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006050928929659121</v>
+        <v>0.006211595968804175</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02907079508153747</v>
+        <v>0.0279894489052966</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1632,19 +1632,19 @@
         <v>25768</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17423</v>
+        <v>17170</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37135</v>
+        <v>37740</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0338938104035884</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02291809830247678</v>
+        <v>0.0225853644038133</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04884643607527892</v>
+        <v>0.04964203524726444</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1653,19 +1653,19 @@
         <v>33108</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23072</v>
+        <v>22704</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46628</v>
+        <v>45535</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02605197397508241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01815493510427281</v>
+        <v>0.01786538285074387</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0366904062510032</v>
+        <v>0.03583062153030473</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>503256</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>495753</v>
+        <v>496305</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>507506</v>
+        <v>507424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9856240357635078</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9709292049184626</v>
+        <v>0.9720105510947035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9939490710703409</v>
+        <v>0.9937884040311958</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>678</v>
@@ -1703,19 +1703,19 @@
         <v>734478</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>723111</v>
+        <v>722506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>742823</v>
+        <v>743076</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9661061895964116</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9511535639247211</v>
+        <v>0.9503579647527364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9770819016975232</v>
+        <v>0.9774146355961868</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1158</v>
@@ -1724,19 +1724,19 @@
         <v>1237735</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1224215</v>
+        <v>1225308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1247771</v>
+        <v>1248139</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9739480260249176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9633095937489974</v>
+        <v>0.9641693784696957</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9818450648957272</v>
+        <v>0.9821346171492567</v>
       </c>
     </row>
     <row r="18">
@@ -1841,19 +1841,19 @@
         <v>48182</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36355</v>
+        <v>33634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>64169</v>
+        <v>63995</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04343239774551601</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03277175594945678</v>
+        <v>0.03031887092643361</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05784407507092228</v>
+        <v>0.05768714940130707</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>44</v>
@@ -1862,19 +1862,19 @@
         <v>48182</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>35066</v>
+        <v>35811</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64146</v>
+        <v>63625</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03500989920215513</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02547981874714187</v>
+        <v>0.02602119998627499</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04661020246631531</v>
+        <v>0.04623097485543141</v>
       </c>
     </row>
     <row r="20">
@@ -1904,19 +1904,19 @@
         <v>1061169</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1045182</v>
+        <v>1045356</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1072996</v>
+        <v>1075717</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.956567602254484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9421559249290778</v>
+        <v>0.9423128505986931</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9672282440505432</v>
+        <v>0.9696811290735664</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1265</v>
@@ -1925,19 +1925,19 @@
         <v>1328051</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1312087</v>
+        <v>1312608</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1341167</v>
+        <v>1340422</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9649901007978449</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9533897975336847</v>
+        <v>0.9537690251445682</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9745201812528586</v>
+        <v>0.9739788000137247</v>
       </c>
     </row>
     <row r="21">
@@ -2029,19 +2029,19 @@
         <v>67982</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52721</v>
+        <v>51555</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85595</v>
+        <v>86502</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01986659589424439</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01540694754093779</v>
+        <v>0.01506600126168781</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02501373013537778</v>
+        <v>0.02527882295631069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -2050,19 +2050,19 @@
         <v>94052</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74044</v>
+        <v>74607</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>114945</v>
+        <v>113249</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02651654469265381</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02087553922094793</v>
+        <v>0.02103441552772252</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03240699609025231</v>
+        <v>0.03192897113191758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>146</v>
@@ -2071,19 +2071,19 @@
         <v>162034</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>137329</v>
+        <v>137566</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>190891</v>
+        <v>188604</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02325121267240492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01970614467193581</v>
+        <v>0.01974016096147256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02739216019083092</v>
+        <v>0.02706390558833592</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2100,19 @@
         <v>3353928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3336315</v>
+        <v>3335408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3369189</v>
+        <v>3370355</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9801334041057556</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9749862698646218</v>
+        <v>0.9747211770436891</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9845930524590621</v>
+        <v>0.9849339987383121</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3203</v>
@@ -2121,19 +2121,19 @@
         <v>3452863</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3431970</v>
+        <v>3433666</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3472871</v>
+        <v>3472308</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9734834553073461</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9675930039097477</v>
+        <v>0.9680710288680824</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9791244607790521</v>
+        <v>0.9789655844722776</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6347</v>
@@ -2142,19 +2142,19 @@
         <v>6806791</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6777934</v>
+        <v>6780221</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6831496</v>
+        <v>6831259</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9767487873275951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9726078398091691</v>
+        <v>0.9729360944116641</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9802938553280642</v>
+        <v>0.9802598390385275</v>
       </c>
     </row>
     <row r="24">
@@ -2488,19 +2488,19 @@
         <v>3747</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>966</v>
+        <v>1033</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9452</v>
+        <v>9685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008731696296204072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002252033852169967</v>
+        <v>0.002406248752829369</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02202707161448261</v>
+        <v>0.02257142377270606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2509,19 +2509,19 @@
         <v>6131</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1990</v>
+        <v>2131</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13999</v>
+        <v>13368</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01766623708149962</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005733025173020557</v>
+        <v>0.006141467343719498</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04033622315395614</v>
+        <v>0.03851696964462581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2530,19 +2530,19 @@
         <v>9878</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4997</v>
+        <v>4634</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>18848</v>
+        <v>18776</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01272678556260188</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.006438615635184892</v>
+        <v>0.005970955776227077</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02428400600398263</v>
+        <v>0.02419068607293865</v>
       </c>
     </row>
     <row r="5">
@@ -2559,19 +2559,19 @@
         <v>425345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>419640</v>
+        <v>419407</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428126</v>
+        <v>428059</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9912683037037959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9779729283855172</v>
+        <v>0.9774285762272932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99774796614783</v>
+        <v>0.9975937512471706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>327</v>
@@ -2580,19 +2580,19 @@
         <v>340924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>333056</v>
+        <v>333687</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345065</v>
+        <v>344924</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9823337629185004</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9596637768460436</v>
+        <v>0.9614830303553741</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9942669748269795</v>
+        <v>0.9938585326562804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>719</v>
@@ -2601,19 +2601,19 @@
         <v>766269</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>757299</v>
+        <v>757371</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>771150</v>
+        <v>771513</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9872732144373981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9757159939960176</v>
+        <v>0.9758093139270616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9935613843648151</v>
+        <v>0.9940290442237729</v>
       </c>
     </row>
     <row r="6">
@@ -2705,19 +2705,19 @@
         <v>2984</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8276</v>
+        <v>8707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007909151412322337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002424886545295915</v>
+        <v>0.002428617173237273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02193786162165509</v>
+        <v>0.02308154336316766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2726,19 +2726,19 @@
         <v>3226</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9210</v>
+        <v>9018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008666656068008323</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002363788609208694</v>
+        <v>0.002374557999531898</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02474067034680475</v>
+        <v>0.02422419550391264</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -2747,19 +2747,19 @@
         <v>6210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2899</v>
+        <v>2202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13955</v>
+        <v>12838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008285400424879784</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003868057864881178</v>
+        <v>0.002938534486401159</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01861864631994706</v>
+        <v>0.01712833547891066</v>
       </c>
     </row>
     <row r="8">
@@ -2776,19 +2776,19 @@
         <v>374243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368951</v>
+        <v>368520</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376312</v>
+        <v>376311</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9920908485876777</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9780621383783447</v>
+        <v>0.9769184566368317</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9975751134547041</v>
+        <v>0.9975713828267627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>349</v>
@@ -2797,19 +2797,19 @@
         <v>369047</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363063</v>
+        <v>363255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371393</v>
+        <v>371389</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9913333439319917</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9752593296531953</v>
+        <v>0.9757758044960869</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9976362113907913</v>
+        <v>0.9976254420004681</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>700</v>
@@ -2818,19 +2818,19 @@
         <v>743290</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>735545</v>
+        <v>736662</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>746601</v>
+        <v>747298</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9917145995751202</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.981381353680053</v>
+        <v>0.9828716645210893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9961319421351188</v>
+        <v>0.9970614655135989</v>
       </c>
     </row>
     <row r="9">
@@ -2922,19 +2922,19 @@
         <v>11026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5814</v>
+        <v>5899</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18845</v>
+        <v>18574</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02112617501837543</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01113884490409807</v>
+        <v>0.01130329368353849</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03610764318612301</v>
+        <v>0.03558756216450062</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2943,19 +2943,19 @@
         <v>4555</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11153</v>
+        <v>10397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02741726145716015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0066524603954375</v>
+        <v>0.006692046561998622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06713615192849909</v>
+        <v>0.06258795825255768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -2964,19 +2964,19 @@
         <v>15581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9131</v>
+        <v>9112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25328</v>
+        <v>25120</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02264512485322309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01327099526457603</v>
+        <v>0.01324368074979573</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03681207299041022</v>
+        <v>0.03650985983431965</v>
       </c>
     </row>
     <row r="11">
@@ -2993,19 +2993,19 @@
         <v>510888</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503069</v>
+        <v>503340</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>516100</v>
+        <v>516015</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9788738249816246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.963892356813877</v>
+        <v>0.9644124378354995</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.988861155095902</v>
+        <v>0.9886967063164616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>149</v>
@@ -3014,19 +3014,19 @@
         <v>161568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154970</v>
+        <v>155726</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>165018</v>
+        <v>165011</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9725827385428398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9328638480715009</v>
+        <v>0.9374120417474423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9933475396045626</v>
+        <v>0.9933079534380014</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>639</v>
@@ -3035,19 +3035,19 @@
         <v>672455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>662708</v>
+        <v>662916</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>678905</v>
+        <v>678924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9773548751467769</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.96318792700959</v>
+        <v>0.9634901401656805</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.986729004735424</v>
+        <v>0.9867563192502044</v>
       </c>
     </row>
     <row r="12">
@@ -3139,19 +3139,19 @@
         <v>7557</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2773</v>
+        <v>3494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13895</v>
+        <v>14974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006573523233407066</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002412385326846495</v>
+        <v>0.003039400697646075</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01208626021835129</v>
+        <v>0.01302495300312517</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -3160,19 +3160,19 @@
         <v>17673</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10436</v>
+        <v>10108</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28683</v>
+        <v>28763</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02139959611116387</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01263574247042633</v>
+        <v>0.01223966642806253</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03473048982755052</v>
+        <v>0.0348270499188231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -3181,19 +3181,19 @@
         <v>25231</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15806</v>
+        <v>16491</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35970</v>
+        <v>38246</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01277165407091942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008000768635424066</v>
+        <v>0.008347838954379615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01820798029624053</v>
+        <v>0.0193598960244472</v>
       </c>
     </row>
     <row r="14">
@@ -3210,19 +3210,19 @@
         <v>1142081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1135743</v>
+        <v>1134664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1146865</v>
+        <v>1146144</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9934264767665929</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9879137397816486</v>
+        <v>0.9869750469968749</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9975876146731535</v>
+        <v>0.9969605993023539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>783</v>
@@ -3231,19 +3231,19 @@
         <v>808203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>797193</v>
+        <v>797113</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>815440</v>
+        <v>815768</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9786004038888362</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9652695101724499</v>
+        <v>0.965172950081177</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9873642575295737</v>
+        <v>0.9877603335719375</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1878</v>
@@ -3252,19 +3252,19 @@
         <v>1950283</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1939544</v>
+        <v>1937268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1959708</v>
+        <v>1959023</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9872283459290806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9817920197037594</v>
+        <v>0.9806401039755522</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9919992313645758</v>
+        <v>0.9916521610456203</v>
       </c>
     </row>
     <row r="15">
@@ -3356,19 +3356,19 @@
         <v>10075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5637</v>
+        <v>5650</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18012</v>
+        <v>17745</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01623106783510343</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009081588861560656</v>
+        <v>0.009102283003941671</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.029018145326871</v>
+        <v>0.02858916453508012</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3377,19 +3377,19 @@
         <v>21452</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13402</v>
+        <v>13456</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32914</v>
+        <v>33556</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02905761203449269</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0181545243734703</v>
+        <v>0.01822701992088713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04458418156675681</v>
+        <v>0.04545315095438605</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -3398,19 +3398,19 @@
         <v>31526</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21654</v>
+        <v>21306</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42917</v>
+        <v>44423</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02319903640347296</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01593470735183855</v>
+        <v>0.01567864243473216</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03158127450773007</v>
+        <v>0.03268954061606127</v>
       </c>
     </row>
     <row r="17">
@@ -3427,19 +3427,19 @@
         <v>610631</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>602694</v>
+        <v>602961</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>615069</v>
+        <v>615056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9837689321648966</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9709818546731288</v>
+        <v>0.9714108354649206</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9909184111384393</v>
+        <v>0.9908977169960583</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>680</v>
@@ -3448,19 +3448,19 @@
         <v>716792</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>705330</v>
+        <v>704688</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>724842</v>
+        <v>724788</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9709423879655074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9554158184332439</v>
+        <v>0.9545468490456142</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9818454756265298</v>
+        <v>0.981772980079113</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1266</v>
@@ -3469,19 +3469,19 @@
         <v>1327424</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1316033</v>
+        <v>1314527</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1337296</v>
+        <v>1337644</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.976800963596527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.96841872549227</v>
+        <v>0.9673104593839387</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9840652926481614</v>
+        <v>0.9843213575652677</v>
       </c>
     </row>
     <row r="18">
@@ -3586,19 +3586,19 @@
         <v>27428</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17378</v>
+        <v>17609</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39660</v>
+        <v>39703</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02534880534735919</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01606066326494594</v>
+        <v>0.0162742548924462</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0366537196261436</v>
+        <v>0.03669329347132064</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -3607,19 +3607,19 @@
         <v>27428</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18478</v>
+        <v>17061</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39561</v>
+        <v>39895</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02003260177079754</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01349579175681273</v>
+        <v>0.01246087817789844</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02889385526378944</v>
+        <v>0.02913802167730101</v>
       </c>
     </row>
     <row r="20">
@@ -3649,19 +3649,19 @@
         <v>1054597</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1042365</v>
+        <v>1042322</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1064647</v>
+        <v>1064416</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9746511946526408</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9633462803738564</v>
+        <v>0.9633067065286793</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.983939336735054</v>
+        <v>0.9837257451075538</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1240</v>
@@ -3670,19 +3670,19 @@
         <v>1341742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1329609</v>
+        <v>1329275</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1350692</v>
+        <v>1352109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9799673982292024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9711061447362105</v>
+        <v>0.970861978322699</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9865042082431873</v>
+        <v>0.9875391218221016</v>
       </c>
     </row>
     <row r="21">
@@ -3774,19 +3774,19 @@
         <v>35388</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25708</v>
+        <v>25178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48952</v>
+        <v>48516</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01045218076976275</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007592994748877369</v>
+        <v>0.007436590941781352</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01445848557878721</v>
+        <v>0.0143295571924862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -3795,19 +3795,19 @@
         <v>80465</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63854</v>
+        <v>62181</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101553</v>
+        <v>100369</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02278437640188178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01808083655752117</v>
+        <v>0.01760691607530429</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02875568470206117</v>
+        <v>0.02842039156487698</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>108</v>
@@ -3816,19 +3816,19 @@
         <v>115853</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94678</v>
+        <v>93088</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139764</v>
+        <v>138680</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01674831041189531</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01368708853661836</v>
+        <v>0.01345719285456779</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02020500746377554</v>
+        <v>0.02004825005393675</v>
       </c>
     </row>
     <row r="23">
@@ -3845,19 +3845,19 @@
         <v>3350334</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3336770</v>
+        <v>3337206</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3360014</v>
+        <v>3360544</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9895478192302373</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9855415144212125</v>
+        <v>0.985670442807514</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9924070052511226</v>
+        <v>0.9925634090582187</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3256</v>
@@ -3866,19 +3866,19 @@
         <v>3451131</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3430043</v>
+        <v>3431227</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3467742</v>
+        <v>3469415</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9772156235981182</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9712443152979389</v>
+        <v>0.9715796084351234</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.981919163442479</v>
+        <v>0.9823930839246958</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6442</v>
@@ -3887,19 +3887,19 @@
         <v>6801465</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6777554</v>
+        <v>6778638</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6822640</v>
+        <v>6824230</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9832516895881047</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9797949925362245</v>
+        <v>0.9799517499460634</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9863129114633816</v>
+        <v>0.9865428071454326</v>
       </c>
     </row>
     <row r="24">
@@ -4233,19 +4233,19 @@
         <v>14103</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9282</v>
+        <v>9036</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21288</v>
+        <v>20980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02561319157054152</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01685705783261529</v>
+        <v>0.01641056103084941</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03866286893350543</v>
+        <v>0.0381017342865554</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -4254,19 +4254,19 @@
         <v>9619</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5510</v>
+        <v>5471</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14884</v>
+        <v>15324</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01969414096619567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01128161000710164</v>
+        <v>0.01120143076833977</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03047448447269512</v>
+        <v>0.03137454392630432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -4275,19 +4275,19 @@
         <v>23722</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16911</v>
+        <v>16733</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31934</v>
+        <v>32095</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02283085505644479</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01627579628402095</v>
+        <v>0.01610454119072604</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0307345857767219</v>
+        <v>0.03088973692916894</v>
       </c>
     </row>
     <row r="5">
@@ -4304,19 +4304,19 @@
         <v>536515</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>529330</v>
+        <v>529638</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>541336</v>
+        <v>541582</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9743868084294586</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9613371310664945</v>
+        <v>0.9618982657134444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9831429421673846</v>
+        <v>0.9835894389691505</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>670</v>
@@ -4325,19 +4325,19 @@
         <v>478792</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>473527</v>
+        <v>473087</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>482901</v>
+        <v>482940</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9803058590338044</v>
+        <v>0.9803058590338043</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9695255155273049</v>
+        <v>0.9686254560736955</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9887183899928983</v>
+        <v>0.9887985692316601</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1202</v>
@@ -4346,19 +4346,19 @@
         <v>1015307</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1007095</v>
+        <v>1006934</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1022118</v>
+        <v>1022296</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9771691449435552</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9692654142232785</v>
+        <v>0.969110263070831</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9837242037159791</v>
+        <v>0.983895458809274</v>
       </c>
     </row>
     <row r="6">
@@ -4450,19 +4450,19 @@
         <v>10300</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6034</v>
+        <v>6273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17509</v>
+        <v>17104</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02131565881389291</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01248799522366254</v>
+        <v>0.01298182285758997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03623423044866968</v>
+        <v>0.03539575775624036</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4471,19 +4471,19 @@
         <v>10073</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5873</v>
+        <v>5999</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16423</v>
+        <v>16436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02384292655265149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01389974657416788</v>
+        <v>0.01419935773012167</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03887149177106902</v>
+        <v>0.03890136029011607</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>32</v>
@@ -4492,19 +4492,19 @@
         <v>20373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14127</v>
+        <v>14210</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28814</v>
+        <v>29205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02249457589811158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01559736115139489</v>
+        <v>0.01568931491955841</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0318136925040187</v>
+        <v>0.03224606068287789</v>
       </c>
     </row>
     <row r="8">
@@ -4521,19 +4521,19 @@
         <v>472912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465703</v>
+        <v>466108</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>477178</v>
+        <v>476939</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9786843411861071</v>
+        <v>0.978684341186107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9637657695513302</v>
+        <v>0.9646042422437596</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9875120047763375</v>
+        <v>0.9870181771424099</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>573</v>
@@ -4542,19 +4542,19 @@
         <v>412419</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406069</v>
+        <v>406056</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416619</v>
+        <v>416493</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9761570734473486</v>
+        <v>0.9761570734473487</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.961128508228931</v>
+        <v>0.9610986397098841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9861002534258322</v>
+        <v>0.9858006422698784</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1038</v>
@@ -4563,19 +4563,19 @@
         <v>885331</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>876890</v>
+        <v>876499</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>891577</v>
+        <v>891494</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9775054241018885</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9681863074959812</v>
+        <v>0.9677539393171219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9844026388486051</v>
+        <v>0.9843106850804416</v>
       </c>
     </row>
     <row r="9">
@@ -4667,19 +4667,19 @@
         <v>12395</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7484</v>
+        <v>7850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18374</v>
+        <v>18887</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0263297991141155</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01589757351485977</v>
+        <v>0.01667546768036894</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03903268547017055</v>
+        <v>0.04012252015262413</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4688,19 +4688,19 @@
         <v>10174</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5893</v>
+        <v>6238</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16176</v>
+        <v>16269</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05439568478612851</v>
+        <v>0.05439568478612852</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03150471343187086</v>
+        <v>0.03335103392309662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08648273585410986</v>
+        <v>0.0869833566681595</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -4709,19 +4709,19 @@
         <v>22569</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16517</v>
+        <v>15530</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>30631</v>
+        <v>30925</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03431029135850642</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02510963891078639</v>
+        <v>0.02360917683969778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04656738650506496</v>
+        <v>0.04701334017726767</v>
       </c>
     </row>
     <row r="11">
@@ -4738,19 +4738,19 @@
         <v>458348</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>452369</v>
+        <v>451856</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463259</v>
+        <v>462893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9736702008858845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9609673145298296</v>
+        <v>0.9598774798473763</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9841024264851403</v>
+        <v>0.9833245323196311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>269</v>
@@ -4759,19 +4759,19 @@
         <v>176866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170864</v>
+        <v>170771</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181147</v>
+        <v>180802</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9456043152138714</v>
+        <v>0.9456043152138712</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9135172641458901</v>
+        <v>0.9130166433318405</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9684952865681292</v>
+        <v>0.9666489660769033</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>735</v>
@@ -4780,19 +4780,19 @@
         <v>635214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>627152</v>
+        <v>626858</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>641266</v>
+        <v>642253</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9656897086414936</v>
+        <v>0.9656897086414937</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9534326134949348</v>
+        <v>0.9529866598227323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9748903610892135</v>
+        <v>0.9763908231603025</v>
       </c>
     </row>
     <row r="12">
@@ -4884,19 +4884,19 @@
         <v>43518</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32938</v>
+        <v>33331</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56217</v>
+        <v>57712</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03855667794519661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02918291663483926</v>
+        <v>0.02953134999127641</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04980785794718772</v>
+        <v>0.05113246909708779</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -4905,19 +4905,19 @@
         <v>24537</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18545</v>
+        <v>17868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32571</v>
+        <v>32833</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02851402842577908</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02155086850526099</v>
+        <v>0.02076385247286426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03785067900184501</v>
+        <v>0.0381549845370468</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -4926,19 +4926,19 @@
         <v>68055</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57270</v>
+        <v>55721</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84027</v>
+        <v>81565</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03421225723286209</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02879062391547048</v>
+        <v>0.02801160438464417</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04224164824112697</v>
+        <v>0.04100389666945449</v>
       </c>
     </row>
     <row r="14">
@@ -4955,19 +4955,19 @@
         <v>1085160</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1072461</v>
+        <v>1070966</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1095740</v>
+        <v>1095347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9614433220548033</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9501921420528123</v>
+        <v>0.9488675309029125</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9708170833651605</v>
+        <v>0.9704686500087238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1182</v>
@@ -4976,19 +4976,19 @@
         <v>835985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>827951</v>
+        <v>827689</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>841977</v>
+        <v>842654</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9714859715742209</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9621493209981548</v>
+        <v>0.9618450154629532</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9784491314947391</v>
+        <v>0.9792361475271358</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2231</v>
@@ -4997,19 +4997,19 @@
         <v>1921145</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1905173</v>
+        <v>1907635</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1931930</v>
+        <v>1933479</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9657877427671379</v>
+        <v>0.965787742767138</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.957758351758873</v>
+        <v>0.9589961033305455</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9712093760845294</v>
+        <v>0.9719883956153559</v>
       </c>
     </row>
     <row r="15">
@@ -5101,19 +5101,19 @@
         <v>25589</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18604</v>
+        <v>18346</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34801</v>
+        <v>35373</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04513156389076159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03281258904230418</v>
+        <v>0.03235746179141865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06138089713473568</v>
+        <v>0.06238858660483552</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>125</v>
@@ -5122,19 +5122,19 @@
         <v>58985</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49470</v>
+        <v>49379</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69679</v>
+        <v>71144</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0710548441031309</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05959308537159427</v>
+        <v>0.05948356368526551</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08393789962279588</v>
+        <v>0.0857026383739687</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>166</v>
@@ -5143,19 +5143,19 @@
         <v>84573</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71321</v>
+        <v>72721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>98465</v>
+        <v>99664</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06053459151284366</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0510491896381288</v>
+        <v>0.05205102437635948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07047771048868971</v>
+        <v>0.07133608049519753</v>
       </c>
     </row>
     <row r="17">
@@ -5172,19 +5172,19 @@
         <v>541387</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>532175</v>
+        <v>531603</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>548372</v>
+        <v>548630</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9548684361092384</v>
+        <v>0.9548684361092382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9386191028652641</v>
+        <v>0.9376114133951645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9671874109576959</v>
+        <v>0.9676425382085815</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1164</v>
@@ -5193,19 +5193,19 @@
         <v>771142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>760448</v>
+        <v>758983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>780657</v>
+        <v>780748</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9289451558968692</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9160621003772041</v>
+        <v>0.9142973616260313</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.940406914628406</v>
+        <v>0.9405164363147345</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1669</v>
@@ -5214,19 +5214,19 @@
         <v>1312530</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1298638</v>
+        <v>1297439</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1325782</v>
+        <v>1324382</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9394654084871563</v>
+        <v>0.9394654084871565</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9295222895113102</v>
+        <v>0.9286639195048025</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9489508103618711</v>
+        <v>0.9479489756236408</v>
       </c>
     </row>
     <row r="18">
@@ -5318,19 +5318,19 @@
         <v>1837</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5086</v>
+        <v>5869</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.007744088480703153</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002032076629645494</v>
+        <v>0.002069913780654065</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02143919057492668</v>
+        <v>0.02474152906604521</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>83</v>
@@ -5339,19 +5339,19 @@
         <v>46392</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38198</v>
+        <v>36599</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58293</v>
+        <v>58481</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05504002490115232</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04531829144283703</v>
+        <v>0.0434216414189266</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06915968734685367</v>
+        <v>0.06938294001275713</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -5360,19 +5360,19 @@
         <v>48229</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38614</v>
+        <v>38046</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>59410</v>
+        <v>60200</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0446521824824288</v>
+        <v>0.04465218248242881</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0357500201343581</v>
+        <v>0.03522489090760374</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05500378448455726</v>
+        <v>0.05573513298918738</v>
       </c>
     </row>
     <row r="20">
@@ -5389,19 +5389,19 @@
         <v>235391</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>232142</v>
+        <v>231359</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236746</v>
+        <v>236737</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9922559115192968</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9785608094250724</v>
+        <v>0.9752584709339548</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9979679233703546</v>
+        <v>0.9979300862193459</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1074</v>
@@ -5410,19 +5410,19 @@
         <v>796480</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>784579</v>
+        <v>784391</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>804674</v>
+        <v>806273</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9449599750988478</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9308403126531463</v>
+        <v>0.9306170599872426</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9546817085571629</v>
+        <v>0.9565783585810731</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1183</v>
@@ -5431,19 +5431,19 @@
         <v>1031871</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1020690</v>
+        <v>1019900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1041486</v>
+        <v>1042054</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9553478175175709</v>
+        <v>0.9553478175175715</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9449962155154428</v>
+        <v>0.9442648670108127</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9642499798656419</v>
+        <v>0.9647751090923963</v>
       </c>
     </row>
     <row r="21">
@@ -5535,19 +5535,19 @@
         <v>107741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>91903</v>
+        <v>92178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>127866</v>
+        <v>126752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03134334707451349</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02673585957429767</v>
+        <v>0.02681570981161463</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03719793090211385</v>
+        <v>0.03687373850349533</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>306</v>
@@ -5556,19 +5556,19 @@
         <v>159780</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>142558</v>
+        <v>142144</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>179943</v>
+        <v>179512</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0439986881559188</v>
+        <v>0.04399868815591881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03925622164989944</v>
+        <v>0.03914233635081867</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04955113453407886</v>
+        <v>0.04943246603178929</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>475</v>
@@ -5577,19 +5577,19 @@
         <v>267521</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>242940</v>
+        <v>243575</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>292352</v>
+        <v>291830</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03784468207587689</v>
+        <v>0.0378446820758769</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03436736873533307</v>
+        <v>0.03445717575254251</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04135736302589525</v>
+        <v>0.04128357720683214</v>
       </c>
     </row>
     <row r="23">
@@ -5606,19 +5606,19 @@
         <v>3329714</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3309589</v>
+        <v>3310703</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3345552</v>
+        <v>3345277</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9686566529254867</v>
+        <v>0.9686566529254866</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9628020690978861</v>
+        <v>0.9631262614965048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9732641404257023</v>
+        <v>0.9731842901883854</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4932</v>
@@ -5627,19 +5627,19 @@
         <v>3471684</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3451521</v>
+        <v>3451952</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3488906</v>
+        <v>3489320</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9560013118440811</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9504488654659211</v>
+        <v>0.9505675339682111</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9607437783501006</v>
+        <v>0.9608576636491812</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8058</v>
@@ -5648,19 +5648,19 @@
         <v>6801398</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6776567</v>
+        <v>6777089</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6825979</v>
+        <v>6825344</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.962155317924123</v>
+        <v>0.9621553179241229</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.958642636974104</v>
+        <v>0.9587164227931675</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9656326312646668</v>
+        <v>0.9655428242474575</v>
       </c>
     </row>
     <row r="24">
